--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Tnfsf11</t>
+  </si>
+  <si>
+    <t>Tnfrsf11a</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Tnfsf11</t>
-  </si>
-  <si>
-    <t>Tnfrsf11a</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -546,10 +546,10 @@
         <v>0.16034</v>
       </c>
       <c r="I2">
-        <v>0.01703322519986738</v>
+        <v>0.01683020325561672</v>
       </c>
       <c r="J2">
-        <v>0.01703322519986738</v>
+        <v>0.01683020325561672</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.160176666666667</v>
+        <v>2.386127333333333</v>
       </c>
       <c r="N2">
-        <v>9.48053</v>
+        <v>7.158382</v>
       </c>
       <c r="O2">
-        <v>0.04793871048811373</v>
+        <v>0.04731171100836582</v>
       </c>
       <c r="P2">
-        <v>0.04793871048811374</v>
+        <v>0.04731171100836583</v>
       </c>
       <c r="Q2">
-        <v>0.1689009089111111</v>
+        <v>0.1275305522088889</v>
       </c>
       <c r="R2">
-        <v>1.5201081802</v>
+        <v>1.14777496988</v>
       </c>
       <c r="S2">
-        <v>0.0008165508515352854</v>
+        <v>0.0007962657126417957</v>
       </c>
       <c r="T2">
-        <v>0.0008165508515352857</v>
+        <v>0.0007962657126417958</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -608,10 +608,10 @@
         <v>0.16034</v>
       </c>
       <c r="I3">
-        <v>0.01703322519986738</v>
+        <v>0.01683020325561672</v>
       </c>
       <c r="J3">
-        <v>0.01703322519986738</v>
+        <v>0.01683020325561672</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>32.88509433333333</v>
+        <v>26.214127</v>
       </c>
       <c r="N3">
-        <v>98.655283</v>
+        <v>78.642381</v>
       </c>
       <c r="O3">
-        <v>0.4988547106395875</v>
+        <v>0.519769076710603</v>
       </c>
       <c r="P3">
-        <v>0.4988547106395876</v>
+        <v>0.519769076710603</v>
       </c>
       <c r="Q3">
-        <v>1.757598675135556</v>
+        <v>1.401057707726667</v>
       </c>
       <c r="R3">
-        <v>15.81838807622</v>
+        <v>12.60951936954</v>
       </c>
       <c r="S3">
-        <v>0.008497104628338772</v>
+        <v>0.008747819207023687</v>
       </c>
       <c r="T3">
-        <v>0.008497104628338773</v>
+        <v>0.008747819207023687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.16034</v>
       </c>
       <c r="I4">
-        <v>0.01703322519986738</v>
+        <v>0.01683020325561672</v>
       </c>
       <c r="J4">
-        <v>0.01703322519986738</v>
+        <v>0.01683020325561672</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.038421</v>
+        <v>0.007255999999999999</v>
       </c>
       <c r="N4">
-        <v>0.115263</v>
+        <v>0.021768</v>
       </c>
       <c r="O4">
-        <v>0.000582832350827586</v>
+        <v>0.0001438706854747494</v>
       </c>
       <c r="P4">
-        <v>0.0005828323508275861</v>
+        <v>0.0001438706854747494</v>
       </c>
       <c r="Q4">
-        <v>0.00205347438</v>
+        <v>0.0003878090133333333</v>
       </c>
       <c r="R4">
-        <v>0.01848126942</v>
+        <v>0.00349028112</v>
       </c>
       <c r="S4">
-        <v>9.927514685414383E-06</v>
+        <v>2.421372879064935E-06</v>
       </c>
       <c r="T4">
-        <v>9.927514685414386E-06</v>
+        <v>2.421372879064936E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -732,10 +732,10 @@
         <v>0.16034</v>
       </c>
       <c r="I5">
-        <v>0.01703322519986738</v>
+        <v>0.01683020325561672</v>
       </c>
       <c r="J5">
-        <v>0.01703322519986738</v>
+        <v>0.01683020325561672</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.83749433333334</v>
+        <v>21.82666933333333</v>
       </c>
       <c r="N5">
-        <v>89.512483</v>
+        <v>65.480008</v>
       </c>
       <c r="O5">
-        <v>0.4526237465214711</v>
+        <v>0.4327753415955564</v>
       </c>
       <c r="P5">
-        <v>0.4526237465214712</v>
+        <v>0.4327753415955564</v>
       </c>
       <c r="Q5">
-        <v>1.594714613802222</v>
+        <v>1.166562720302222</v>
       </c>
       <c r="R5">
-        <v>14.35243152422</v>
+        <v>10.49906448272</v>
       </c>
       <c r="S5">
-        <v>0.007709642205307907</v>
+        <v>0.007283696963072171</v>
       </c>
       <c r="T5">
-        <v>0.00770964220530791</v>
+        <v>0.007283696963072171</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -794,10 +794,10 @@
         <v>9.052197</v>
       </c>
       <c r="I6">
-        <v>0.9616322193748527</v>
+        <v>0.9501703593606328</v>
       </c>
       <c r="J6">
-        <v>0.9616322193748529</v>
+        <v>0.9501703593606329</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.160176666666667</v>
+        <v>2.386127333333333</v>
       </c>
       <c r="N6">
-        <v>9.48053</v>
+        <v>7.158382</v>
       </c>
       <c r="O6">
-        <v>0.04793871048811373</v>
+        <v>0.04731171100836582</v>
       </c>
       <c r="P6">
-        <v>0.04793871048811374</v>
+        <v>0.04731171100836583</v>
       </c>
       <c r="Q6">
-        <v>9.535513913823332</v>
+        <v>7.199898229472665</v>
       </c>
       <c r="R6">
-        <v>85.81962522440999</v>
+        <v>64.79908406525399</v>
       </c>
       <c r="S6">
-        <v>0.04609940856065334</v>
+        <v>0.04495418545078535</v>
       </c>
       <c r="T6">
-        <v>0.04609940856065335</v>
+        <v>0.04495418545078537</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>9.052197</v>
       </c>
       <c r="I7">
-        <v>0.9616322193748527</v>
+        <v>0.9501703593606328</v>
       </c>
       <c r="J7">
-        <v>0.9616322193748529</v>
+        <v>0.9501703593606329</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.88509433333333</v>
+        <v>26.214127</v>
       </c>
       <c r="N7">
-        <v>98.655283</v>
+        <v>78.642381</v>
       </c>
       <c r="O7">
-        <v>0.4988547106395875</v>
+        <v>0.519769076710603</v>
       </c>
       <c r="P7">
-        <v>0.4988547106395876</v>
+        <v>0.519769076710603</v>
       </c>
       <c r="Q7">
-        <v>99.22745075630566</v>
+        <v>79.098480595673</v>
       </c>
       <c r="R7">
-        <v>893.0470568067509</v>
+        <v>711.8863253610569</v>
       </c>
       <c r="S7">
-        <v>0.4797147625379465</v>
+        <v>0.493869170402658</v>
       </c>
       <c r="T7">
-        <v>0.4797147625379466</v>
+        <v>0.493869170402658</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>9.052197</v>
       </c>
       <c r="I8">
-        <v>0.9616322193748527</v>
+        <v>0.9501703593606328</v>
       </c>
       <c r="J8">
-        <v>0.9616322193748529</v>
+        <v>0.9501703593606329</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.038421</v>
+        <v>0.007255999999999999</v>
       </c>
       <c r="N8">
-        <v>0.115263</v>
+        <v>0.021768</v>
       </c>
       <c r="O8">
-        <v>0.000582832350827586</v>
+        <v>0.0001438706854747494</v>
       </c>
       <c r="P8">
-        <v>0.0005828323508275861</v>
+        <v>0.0001438706854747494</v>
       </c>
       <c r="Q8">
-        <v>0.115931486979</v>
+        <v>0.02189424714399999</v>
       </c>
       <c r="R8">
-        <v>1.043383382811</v>
+        <v>0.197048224296</v>
       </c>
       <c r="S8">
-        <v>0.0005604703670497943</v>
+        <v>0.0001367016609190032</v>
       </c>
       <c r="T8">
-        <v>0.0005604703670497945</v>
+        <v>0.0001367016609190032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -980,10 +980,10 @@
         <v>9.052197</v>
       </c>
       <c r="I9">
-        <v>0.9616322193748527</v>
+        <v>0.9501703593606328</v>
       </c>
       <c r="J9">
-        <v>0.9616322193748529</v>
+        <v>0.9501703593606329</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.83749433333334</v>
+        <v>21.82666933333333</v>
       </c>
       <c r="N9">
-        <v>89.512483</v>
+        <v>65.480008</v>
       </c>
       <c r="O9">
-        <v>0.4526237465214711</v>
+        <v>0.4327753415955564</v>
       </c>
       <c r="P9">
-        <v>0.4526237465214712</v>
+        <v>0.4327753415955564</v>
       </c>
       <c r="Q9">
-        <v>90.03162556390566</v>
+        <v>65.85977021973065</v>
       </c>
       <c r="R9">
-        <v>810.284630075151</v>
+        <v>592.737931977576</v>
       </c>
       <c r="S9">
-        <v>0.4352575779092031</v>
+        <v>0.4112103018462704</v>
       </c>
       <c r="T9">
-        <v>0.4352575779092032</v>
+        <v>0.4112103018462705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.01182566666666667</v>
+        <v>0.1047943333333333</v>
       </c>
       <c r="H10">
-        <v>0.035477</v>
+        <v>0.314383</v>
       </c>
       <c r="I10">
-        <v>0.003768789637119215</v>
+        <v>0.03299943738375047</v>
       </c>
       <c r="J10">
-        <v>0.003768789637119216</v>
+        <v>0.03299943738375048</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.160176666666667</v>
+        <v>2.386127333333333</v>
       </c>
       <c r="N10">
-        <v>9.48053</v>
+        <v>7.158382</v>
       </c>
       <c r="O10">
-        <v>0.04793871048811373</v>
+        <v>0.04731171100836582</v>
       </c>
       <c r="P10">
-        <v>0.04793871048811374</v>
+        <v>0.04731171100836583</v>
       </c>
       <c r="Q10">
-        <v>0.03737119586777778</v>
+        <v>0.2500526231451111</v>
       </c>
       <c r="R10">
-        <v>0.33634076281</v>
+        <v>2.250473608306</v>
       </c>
       <c r="S10">
-        <v>0.0001806709153044613</v>
+        <v>0.001561259844938666</v>
       </c>
       <c r="T10">
-        <v>0.0001806709153044613</v>
+        <v>0.001561259844938666</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.01182566666666667</v>
+        <v>0.1047943333333333</v>
       </c>
       <c r="H11">
-        <v>0.035477</v>
+        <v>0.314383</v>
       </c>
       <c r="I11">
-        <v>0.003768789637119215</v>
+        <v>0.03299943738375047</v>
       </c>
       <c r="J11">
-        <v>0.003768789637119216</v>
+        <v>0.03299943738375048</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.88509433333333</v>
+        <v>26.214127</v>
       </c>
       <c r="N11">
-        <v>98.655283</v>
+        <v>78.642381</v>
       </c>
       <c r="O11">
-        <v>0.4988547106395875</v>
+        <v>0.519769076710603</v>
       </c>
       <c r="P11">
-        <v>0.4988547106395876</v>
+        <v>0.519769076710603</v>
       </c>
       <c r="Q11">
-        <v>0.3888881638878889</v>
+        <v>2.747091962880333</v>
       </c>
       <c r="R11">
-        <v>3.499993474991</v>
+        <v>24.723827665923</v>
       </c>
       <c r="S11">
-        <v>0.001880078463886582</v>
+        <v>0.01715208710092134</v>
       </c>
       <c r="T11">
-        <v>0.001880078463886583</v>
+        <v>0.01715208710092134</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.01182566666666667</v>
+        <v>0.1047943333333333</v>
       </c>
       <c r="H12">
-        <v>0.035477</v>
+        <v>0.314383</v>
       </c>
       <c r="I12">
-        <v>0.003768789637119215</v>
+        <v>0.03299943738375047</v>
       </c>
       <c r="J12">
-        <v>0.003768789637119216</v>
+        <v>0.03299943738375048</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.038421</v>
+        <v>0.007255999999999999</v>
       </c>
       <c r="N12">
-        <v>0.115263</v>
+        <v>0.021768</v>
       </c>
       <c r="O12">
-        <v>0.000582832350827586</v>
+        <v>0.0001438706854747494</v>
       </c>
       <c r="P12">
-        <v>0.0005828323508275861</v>
+        <v>0.0001438706854747494</v>
       </c>
       <c r="Q12">
-        <v>0.000454353939</v>
+        <v>0.0007603876826666666</v>
       </c>
       <c r="R12">
-        <v>0.004089185451000001</v>
+        <v>0.006843489144000001</v>
       </c>
       <c r="S12">
-        <v>2.196572523976837E-06</v>
+        <v>4.747651676681249E-06</v>
       </c>
       <c r="T12">
-        <v>2.196572523976838E-06</v>
+        <v>4.747651676681252E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.01182566666666667</v>
+        <v>0.1047943333333333</v>
       </c>
       <c r="H13">
-        <v>0.035477</v>
+        <v>0.314383</v>
       </c>
       <c r="I13">
-        <v>0.003768789637119215</v>
+        <v>0.03299943738375047</v>
       </c>
       <c r="J13">
-        <v>0.003768789637119216</v>
+        <v>0.03299943738375048</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,276 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.83749433333334</v>
+        <v>21.82666933333333</v>
       </c>
       <c r="N13">
-        <v>89.512483</v>
+        <v>65.480008</v>
       </c>
       <c r="O13">
-        <v>0.4526237465214711</v>
+        <v>0.4327753415955564</v>
       </c>
       <c r="P13">
-        <v>0.4526237465214712</v>
+        <v>0.4327753415955564</v>
       </c>
       <c r="Q13">
-        <v>0.3528482621545556</v>
+        <v>2.287311261673778</v>
       </c>
       <c r="R13">
-        <v>3.175634359391</v>
+        <v>20.585801355064</v>
       </c>
       <c r="S13">
-        <v>0.001705843685404195</v>
+        <v>0.01428134278621378</v>
       </c>
       <c r="T13">
-        <v>0.001705843685404195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.05511766666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.165353</v>
-      </c>
-      <c r="I14">
-        <v>0.0175657657881606</v>
-      </c>
-      <c r="J14">
-        <v>0.0175657657881606</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>3.160176666666667</v>
-      </c>
-      <c r="N14">
-        <v>9.48053</v>
-      </c>
-      <c r="O14">
-        <v>0.04793871048811373</v>
-      </c>
-      <c r="P14">
-        <v>0.04793871048811374</v>
-      </c>
-      <c r="Q14">
-        <v>0.1741815641211111</v>
-      </c>
-      <c r="R14">
-        <v>1.56763407709</v>
-      </c>
-      <c r="S14">
-        <v>0.0008420801606206441</v>
-      </c>
-      <c r="T14">
-        <v>0.0008420801606206442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.05511766666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.165353</v>
-      </c>
-      <c r="I15">
-        <v>0.0175657657881606</v>
-      </c>
-      <c r="J15">
-        <v>0.0175657657881606</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>32.88509433333333</v>
-      </c>
-      <c r="N15">
-        <v>98.655283</v>
-      </c>
-      <c r="O15">
-        <v>0.4988547106395875</v>
-      </c>
-      <c r="P15">
-        <v>0.4988547106395876</v>
-      </c>
-      <c r="Q15">
-        <v>1.812549667766556</v>
-      </c>
-      <c r="R15">
-        <v>16.312947009899</v>
-      </c>
-      <c r="S15">
-        <v>0.008762765009415623</v>
-      </c>
-      <c r="T15">
-        <v>0.008762765009415625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.05511766666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.165353</v>
-      </c>
-      <c r="I16">
-        <v>0.0175657657881606</v>
-      </c>
-      <c r="J16">
-        <v>0.0175657657881606</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.038421</v>
-      </c>
-      <c r="N16">
-        <v>0.115263</v>
-      </c>
-      <c r="O16">
-        <v>0.000582832350827586</v>
-      </c>
-      <c r="P16">
-        <v>0.0005828323508275861</v>
-      </c>
-      <c r="Q16">
-        <v>0.002117675871</v>
-      </c>
-      <c r="R16">
-        <v>0.019059082839</v>
-      </c>
-      <c r="S16">
-        <v>1.023789656840043E-05</v>
-      </c>
-      <c r="T16">
-        <v>1.023789656840043E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.05511766666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.165353</v>
-      </c>
-      <c r="I17">
-        <v>0.0175657657881606</v>
-      </c>
-      <c r="J17">
-        <v>0.0175657657881606</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>29.83749433333334</v>
-      </c>
-      <c r="N17">
-        <v>89.512483</v>
-      </c>
-      <c r="O17">
-        <v>0.4526237465214711</v>
-      </c>
-      <c r="P17">
-        <v>0.4526237465214712</v>
-      </c>
-      <c r="Q17">
-        <v>1.644573066833222</v>
-      </c>
-      <c r="R17">
-        <v>14.801157601499</v>
-      </c>
-      <c r="S17">
-        <v>0.007950682721555935</v>
-      </c>
-      <c r="T17">
-        <v>0.007950682721555935</v>
+        <v>0.01428134278621379</v>
       </c>
     </row>
   </sheetData>
